--- a/execl_directory/output_part_3.xlsx
+++ b/execl_directory/output_part_3.xlsx
@@ -446,2156 +446,2156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7419648261897604352</t>
+          <t>https://www.douyin.com/video/7375880697992596786</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/01d39b7df95b4e5794c34cb7c267eb19~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=PTFNRKtrqYnq1ucaKmNclcgIGZ8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/og4cIzOril4jAiXVDBCE1gAZdeGLBmBwAIIPe1~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=%2FRkQsxPZnHznIia9XnRz9ssu57g%3D</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>8295</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>如何成为一个表达能力很强的人#提升口才 #表达 #张琦 #女性成长表达 #高情商</t>
+          <t>不要因为睡懒觉而感到自责，因为你起来也创造不了什么价值，能从浪费时间中获得乐趣就不是浪费时间 #成长 #人生 #鸡汤#罗素#萧大业</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7419292912690728227</t>
+          <t>https://www.douyin.com/video/7375501567564336422</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/da21cd14a51b4af6a1e38c212ffb6722~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Cph0jZZIZebs3wSyJTBun6bjeBI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/oEaIsEBAvACgNQ3aAZpAnPWg0AbLiil5IvB5z~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=yYjQdTQEhLpVheRIDKg%2BjQ%2By%2Fi4%3D</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2093</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>背熟15句话，养成领导气场#领导 #管理 #团队管理 #高管  #领导力</t>
+          <t>汪苏泷 放低身段，心平气和，能忍就忍，少受甚至不受情绪的影响，做个宽宏大量的人#歌手#汪苏泷#湖南卫视#孙楠#萧大业</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7419227486229155107</t>
+          <t>https://www.douyin.com/video/7374733280693865766</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/991f13052afd427393e1ee861c0307a7~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=XdPyAk5zqLQh5%2BTCJ4P99%2BNCTTg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAOzPIHmQBogRAD2xHvYPUECiAliZIUuQIhhY~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=MfnvIeepfqk9lyyCNVhWY2qnpnA%3D</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5653</t>
+          <t>6531</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>人生最好的活法走走停停#人生 #认知 #事业 #张琦 #成功</t>
+          <t>李雪琴如此优秀是有道理的 #李雪琴#教育#家庭#尊重#萧大业</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7418950683266731299</t>
+          <t>https://www.douyin.com/video/7374027798052228378</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/1f1072f206b440828d1958f917544147~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=zmjhqw1acVK883Y9ggWxabo8Bxo%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/okBAndzOCze6iksAiuA1EEIBVgwCKgWBN6f0z4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=nNfjlPNWWDx%2FR2EVfyQXl5zPIq8%3D</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2885</t>
+          <t>1792</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>《凡人歌》揭露的现实，戳中了多少人的痛点#凡人歌 #现实 #认知 #价值观 #张琦</t>
+          <t>任何事情走到最后靠的不是激情和坚持，靠的是恰到好处的喜欢和投入…… #法网#纳达尔#体育#网球#萧大业</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7418867305435680050</t>
+          <t>https://www.douyin.com/video/7373666178893385010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/a62990070f3548a482f285d4467fd9a0~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=sKic9Iv6jo1KvS5ub078uLJsl%2F0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocOrtHCLEIHfYElBQhMBUGlCqIC8Ee3eAAMLp7~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=kFMdpwkyJ06cqzj1Hze0fBu5IO8%3D</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4196</t>
+          <t>3550</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>刀郎6亿点赞背后，新媒体时代的启发#刀郎 #新媒体 #商业思维 #情感共鸣 #张琦</t>
+          <t>他是我的偶像，我很想成为像他一样的人… #足球#利物浦#克洛普#英超#萧大业</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7418506640053259557</t>
+          <t>https://www.douyin.com/video/7373274294215855370</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/a0252105ea3d4b9dbea979f5603e33d3~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=isCSpU7BoDs3t4Eoz7WsV6ZU3FU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/o83SADHIYAFyAMwfAg9mmCmfQC9TUAmDEQACAD~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=6ixCXYUdDhjtta6GSGLnoxnMyU4%3D</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>3755</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>见面3秒记住你，自我介绍万能公式#自我介绍 #提升口才 #会说话 #表达 #说话公式</t>
+          <t>歌手 本期歌手对战的那位竟然唱的像个小菜鸟，紧张干嗓音不准跑掉，我得挺身而出了[呲牙]，周末快乐#歌手#亚当#那英#湖南卫视#萧大业</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7418200252009762083</t>
+          <t>https://www.douyin.com/video/7372893017860050214</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/bf1c521636a74d67806668e427ac2ecb~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=v1k1PEvplBejDZ1as%2FzrSuvoy6g%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/o0sc2ACDmCjtYeNFEAAclAIvAAtjfU8gU9QlCv~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=dmYJge%2B8drgBHSngxd4NlduIZ5o%3D</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.7万</t>
+          <t>2291</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>美国降息，我们的房价会上涨吗？#房价 #美国降息 #商业思维 #认知 #房地产</t>
+          <t>成年人的字典里没有容易二字…#人生 #成长 生活#萧大业</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7418184026877365504</t>
+          <t>https://www.douyin.com/video/7372535037151022345</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/858c1545784349c1b05ec6f85b3f101f~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=j7ccTcNYgpG2SSmg5O6s20YpoRs%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQNCECFB8BAZgHJsBEixAezCFAZgDBXKIZf6Qi~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=BIQMGZd1QmEG0wywyj8CAklhYnI%3D</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2612</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>学会高情商反夸，你简直无敌#高情商 #反夸 #接话 #口才 #提升口才</t>
+          <t>我的阿勒泰 她像一个天真的画师，更像一个独身的英雄，入眼皆风景，耳闻是诗歌，认清苦难，咀嚼孤独 #李娟#我的阿勒泰#阿勒泰的角落#马伊琍#萧大业</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7418134933543177482</t>
+          <t>https://www.douyin.com/video/7371758137575083314</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/6ad09f14757649e896eb08e0a465812d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=6C6TgKSriNKKAKm0NyhyuznUx1M%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o02mGewzBIeEggfHBFMALCk2QC73ApmMUBwq6B~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=5NiuM93sN9wL6eoT9VKOrieuJ24%3D</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.1万</t>
+          <t>1.8万</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>正能量满满的肖战，真的为他点赞#肖战 #正能量 #明星 #认知 #王一博</t>
+          <t>他高中时天天去网吧打游戏，高考前二个月突然从网吧消失，然后抽空去参加了一下高考考上了北大…#聪明#学霸#游戏#天才#萧大业</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7417854554496093480</t>
+          <t>https://www.douyin.com/video/7371415888685288714</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/6ba140d52ba9484eb6acf6ed300e2df0~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=KiRbSgRHNK45hc0zWiIBY41odGM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o4PJBf5KAicCI7hzWBzgiBOMEiekA8XtVA1WLn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=wmtoUak5zpBfsK%2BKCOoNvrXWZ3g%3D</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>1735</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>如何面对调侃？会回话的才是高手！#调侃 #高情商 #高情商表达 #回话 #口才</t>
+          <t>无论你遇见谁，他都是你生命中该出现的人，他一定会教会你什么#禅#人生 #成长 #萧大业 #哲理</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7417816041776090405</t>
+          <t>https://www.douyin.com/video/7371047576507780402</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/a1052c47b7e944ffa902816776c23ba5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=KbfhgHOBc9U4YR7yUJab2%2BFODlE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o41AgLD2FxfYSOLAM9u8ABcAQskEICCfgmzLLE~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=jj%2BTZBPdB2soJtDOoRAT7GSWVrg%3D</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.6万</t>
+          <t>2128</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>人口红利消失，未来何去何从？#认知 #人口红利 #商业思维 #马斯克 #00后</t>
+          <t>一辈子只谈一次恋爱，我们相爱已经十万年… #爱情#黄永玉#520#婚姻#萧大业</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7417471406734085386</t>
+          <t>https://www.douyin.com/video/7370681908121898250</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/755d7dc9fa994f719b378ece981cc766~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Q8%2BXrpcN%2Fxy0OpyUYEDzxFOGJhE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAYzJBzNEABhdJNBtAAgIzifjPJ50SRXCyVeC7~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=UZzJV9esUmMkS1xR6QCdmqiumgk%3D</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3003</t>
+          <t>5228</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>精彩女人都会的上台发言公式#女性成长表达 #口才 #发言 #演讲 #口才</t>
+          <t>凡事不可做尽，得给别人留口饭吃#扯淡#管理 #人生 #成长 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7417131310608682292</t>
+          <t>https://www.douyin.com/video/7370305578008104219</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/3f45799f62314ac6848c1cb349329d53~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=g7BbuovJrvBvZ9%2F%2Bu%2BLqY1aG%2FII%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oIbfKJnCSBAeQ7YICQVLJ0ARW0Wg9mkxnA9RDy~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=0bCXVuDjVmII1RF4h1HQSTbVupE%3D</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2388</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024如何低成本高效率找到客户？#商业思维 #创业 #企业 #生意 #学习</t>
+          <t>一场游戏一场梦 #郭有才#菏泽树哥#逆袭#草根#萧大业</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7417112426060991744</t>
+          <t>https://www.douyin.com/video/7369912183901228315</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/013d79bfef674b5397e164445835c2f2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=UfQFyrbv7G7BaFLXQMVQ7msvYkI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oU2Zfw2UDEPHeclHew4fuQGHCwJJgAETLCNIPA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ZzgjrZlFxMyHsc4rnI9HLAj43w0%3D</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>7942</t>
+          <t>6113</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>这才是一个普通人的活法#热爱 #认知 #企业家 #创业者 #延迟满足</t>
+          <t>接受甚至保持自己和别人的不一样，尊重别人和自己的不一样#歌手#湖南卫视#海来阿木#丁太升#萧大业</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7416657697182846245</t>
+          <t>https://www.douyin.com/video/7369582004364381449</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/485914cb6a1241b0b658b6c3c7c86b2a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=hUTutNgmoMXUhLvdtiR8GhuT%2Fbc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o4IMQGA99BIRAenmEeChbM274MbAQDWgCAg5BV~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=hVkQ0Gb3GBq5Hky9SpuOH7Tir2A%3D</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>别乱说话，讲话只有3个目的#提升口才 #表达 #发言 #自我介绍 #说话</t>
+          <t>要活着还是要生活 也许音体美比数理化更重要 #艺术#音乐#美术#舞蹈#萧大业</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7416583914510191909</t>
+          <t>https://www.douyin.com/video/7369172678449679654</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/dac111771c334e28bc84b56a6e95911c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ehAWzPF%2BARJWvV4oUu5ZSqCr3dc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0HiTEbhk8EXIN4zAWDIejWf7Nd9h7ACAzMBg7~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=EBzG7OGSeNn6wJYRZlm5uyjfOwY%3D</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5520</t>
+          <t>2625</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>抓住这6个行业，能带你致富#行业 #商业思维 #新媒体 #短视频 #直播</t>
+          <t>歌手带来的思考 音乐是人类获取美好生活不可或缺的一部分，错过了真的很遗憾 #歌手#湖南卫视#音乐#教育#萧大业</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7416320878838959375</t>
+          <t>https://www.douyin.com/video/7368784827866254601</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/90e324e257bf4e28b0dc03ba5b4e72ea~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Tii%2Bd5vAkaG%2Fn5%2BMdV7ZqIVFFsk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/oUniDsb7AQZymeAAC5VCANC9DQIALEfg9lBA19~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=387ZL21sk2damzCzDOQiwxv4wXA%3D</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3901</t>
+          <t>6.8万</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>追求成长，而不是追求成功#成功 #成长 #认知 #智慧 #人生</t>
+          <t>歌手 一切都是流量。这就是湖南卫视提前就设计好的一个流量的滔天盛宴。 #歌手2024#湖南卫视#那英#海来阿木#萧大业</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7416195102944693504</t>
+          <t>https://www.douyin.com/video/7368111055828012297</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/3da2da00d53c4cb4a5428d72edd0a9dc~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=N2YmlQO0Fa8oQ4UxLZFNYCPZTYY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAInBmiAKBM3cg91exQAS8DAnkntnQBxubkVfC~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=9pVjomd8gvpIzjtxpT4HLLeBymc%3D</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3010</t>
+          <t>511</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>饭局回话公式，不做嘴笨老实人#回话 #饭局 #高情商 #老实 #应酬</t>
+          <t>母亲节有人请母亲吃饭，有人陪母亲出游，我们家请母亲放飞… #母亲节#父母#放飞#人生 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7415953162063908130</t>
+          <t>https://www.douyin.com/video/7368082919673302281</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/503f6e43ace8466b93ead6b134410924~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=D4cuMQ4MA6dGJ8AuyGQHs7oYoV8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oocMBsbnEIIx76MB6sBC9gVWACGAlDCfeCkfQA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=wdqgKICWFsDp3LJ1WizVRCVaWKo%3D</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.8万</t>
+          <t>3228</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>《凡人歌》为什么能成爆款？#凡人歌 #中年危机 #裁员 #家庭 #失业</t>
+          <t>祝天下母亲节日快乐。 #母亲节#人生 #父母 #管理#萧大业</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7415835583353769225</t>
+          <t>https://www.douyin.com/video/7367322196814990642</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/b52d571aa7ea40e980b7a513856531a4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=zo65ri%2BNAbuzoxexY%2BSZfMw620c%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oIehFPfQYf4eEuk2HA87cQxIfxsh7AohHg0IMh~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=6nWagzOATfeDnL50gZoY%2BOJt85s%3D</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>1019</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>靠天地人网，新疆小伙翻盘逆袭#商业 #商业思维 #张琦 #老板 #实体</t>
+          <t>深山老林的一位野人大叔，今天给我上了一课 #男人#女人#天使#萧大业 #责任</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7415609238237531392</t>
+          <t>https://www.douyin.com/video/7366955831474097417</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/40632ed135ac4c9a81c679b4eb5b1412~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=dL3rYr4peTVBkpJ048ETkbwzA9w%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/oQ4e0ACzmCrCB2UfhAAKxAEAAAv8tPMg49I1Ap~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=4eKTxoi%2BtDElBGUnEkNbwOYbDLA%3D</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>5102</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>提升表达能力，请疯狂做这件事#口才 #表达 #高情商说话技巧 #演讲 #公众发言</t>
+          <t>人是目的，肯定不只是工具。任何人也不能把人当成工具来使用，包括上帝。这才是平等、自由的底层逻辑 #璩静#百度#管理#萧大业#德鲁克</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7415593242646940979</t>
+          <t>https://www.douyin.com/video/7366585315257077042</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/45fb4615124046cabd819b069a22f83a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=TDDCdSfRd4lSz1RntnqGLP%2FvNGQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oABfX1wpnIclU7K4AoeDC799gBbbmFAEDCgOAO~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=RLdxY26O%2BvO%2B2yoYaUHy2X2Fo5Q%3D</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2.4万</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>没有搞不定的人，是你的筹码不对#认知 #人生 #智慧 #为人处世 #婚姻</t>
+          <t>得人者得天下，失人者失天下 #百度#璩静#PUA#管理#萧大业</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7415271529430191372</t>
+          <t>https://www.douyin.com/video/7366220404672711963</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQfrIFCYNfBfR1KQCOXQAtMdB0A7tCkgQn84aK~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=VS9XDjnBGUdigyRPWyOPbO0bvuM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owGSfGEnMCJNMh5eDNzCIAIRBBu0bdwAX7QOZf~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=C52%2BUdLYUAlTRodzWPfV%2B5eLY%2Bo%3D</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1191</t>
+          <t>4852</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>粉丝宝宝们中秋快乐，我是不是第一个跟你说中秋快乐的人？ #中秋快乐 #张琦</t>
+          <t>你生命的前半辈子，或许属于别人，活在别人的认为里，那把后半辈子还给你，自己去追随你内在的声音#荣格#人生 #成长 #箴言#萧大业</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7415242380946787635</t>
+          <t>https://www.douyin.com/video/7366103879995493682</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/b7b7311933894433ba21f841bb67e5f4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=7N0KznrH7TiII5Xrkh2uMv2NkWw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0gma1ct3ALTA9IXgEeKOqCnzbfL0IaDAABM5I~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=CEjiBNd8%2F%2BjNaekKKdADL05Wh6A%3D</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>华为划时代!三折叠手机来了#华为 #三折叠手机 #创新 #商业思维 #品牌</t>
+          <t>逆袭 天下之至拙，能胜天下之至巧#曾国藩#逆袭#人生#萧大业#管理</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7414891845810949391</t>
+          <t>https://www.douyin.com/video/7365456056157211931</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/3c6af63d4cc04ba8873c4bf74ecab0d9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=7V36QeXX2pGLqwUp5tt2BDtUiII%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o4M9INDsQel963C0ANrIWVgInbAseABuOBHm1Q~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=xoLxNcFZBPO0QDCbjAs3UVjPKZE%3D</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.2万</t>
+          <t>2916</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>提升管理领导力，用我的方法就对了#管理 #领导力 #团队 #老板 #管理能力</t>
+          <t>胖猫事件的惊醒 我们的社会究竟应该倡导什么？胖猫的死非常值得反思#胖猫#谭竹#捞女#价值观#萧大业</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7414870840115776805</t>
+          <t>https://www.douyin.com/video/7364740692138134835</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/a1e6da630d284f0899c0fc5eda568725~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=EhVJktw9aed6YHHsZzSzCEAsVbw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oIn7wDbBBQoNCexApCebZnZVFOMyB9gHpmINAA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=N8KpuxtNHCHy7cwt%2BVQrRsdarys%3D</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.0万</t>
+          <t>9506</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>我们到底应该过怎么样的人生？#人生 #思考 #认知 #智慧 #热爱</t>
+          <t>胖猫事件不是孤立的事件，值得大家关注讨论 胖猫事件不是孤立的事件，它涉及道德伦理，法律监管，金钱诱惑，信任危机，侵犯个人权益，同时挑战了社会公平正义和诚信体系的稳定性，值得大家关注讨论#胖猫#谭竹#王者荣耀#游戏#萧大业</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7414503101475900687</t>
+          <t>https://www.douyin.com/video/7364379222946696475</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/880def7749884151893eb2816b26d6af~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=0eVOd011E9Vk52wr179GzI0UD2g%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/o4KAzeDSAtfDhnIY2KOICpee9HQsIA5nABAz2P~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=xayyXnD9U1l0PoUzBLyEIkg0rU0%3D</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>5080</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>敢不敢坚持半个月，提高你的表达力#表达 #口才 #发言 #演讲 #说话</t>
+          <t>一个普通人三年时间摇身一变就成了世界顶级富豪，估计马斯克马云马化腾看到都要大喊一声刺激 #赵长鹏#华人首富#加密货币#萧大业 #商业</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7414403296602967348</t>
+          <t>https://www.douyin.com/video/7363988719675772198</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c32dd2d7ab96436299c279ab0f9ac597~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=v6LV8kM1Xu9cPZngCTQCMjX1Vqw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUDMZFPlIBCHfYo42BAAQ5z5fEyuaUikLdf7EJ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=IsHN8lCQtqHEASmLhepiew2Im%2B0%3D</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>4121</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>乾坤未定，你我皆黑马#商业思维 #企业 #创业 #认知 #商业</t>
+          <t>二位在世界范围内在各自领域都能称为顶级专家的人真的是生活简朴，思想单纯，在他们身上看不到任何金钱的影子和痕迹，在这个年纪依然可以笑的那么单纯。#精英教育#大业福传媒#人生 #萧大业#管理</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7414096571119209762</t>
+          <t>https://www.douyin.com/video/7363246667379854643</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/bdfceb5ee5bf47e48375d7ba57a90c96~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=282KtjmQO9ZBAZVfv8ANZqim%2B94%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/osg8zAILCBzLg9A9EqQABwWv1CfdeFJhSuLoto~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=46bn8UIu5MnxAAoVXFDqoMQH4HM%3D</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>3.3万</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>未来经济大变局，给普通人4个建议#技能 #个人提升 #改变 #新媒体运营 #商业思维</t>
+          <t>马斯克突然到访是深意 马斯克此次突然到访有着重大深远意义#马斯克#特斯拉#北京车展#自动驾驶#萧大业</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7414058764535467302</t>
+          <t>https://www.douyin.com/video/7362892546231602470</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/02e52d8c9607402f93a1ea88f3ab0f52~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=%2BmKsxm9zqSitAcP%2Ftd%2BsQ3EKzGs%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQBXAPxL2f4qVAjBEmhzC8tFIz3lgfbEACuUo9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=yVtR34WI9h6NTQ%2BpT585QSjlxL4%3D</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.3万</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>存钱才是成年人最顶级的自律#存钱 #储蓄 #认知 #商业思维 #财富思维</t>
+          <t>搞不清目的就做不好任何一件事，教育的目的到底是什么，教育只有唯一一个目的，太多人都跑偏了#董太太#精英教育#教育#管理 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7413720379153304841</t>
+          <t>https://www.douyin.com/video/7362151958016216346</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/30286f24ac6e4f108cc366f60fffdbd2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=QU1E4TZoFbprHGK9LpK%2FGvZak4c%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/osjlEe8n6wEfzicrBBnAIwVf7jMAnC8BazDObC~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=izzrLuiKMaPZkHYbZgKgUjlxBAY%3D</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3153</t>
+          <t>1.9万</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>做难做的事业，谈容易的恋爱#人生 #认知 #事业 #恋爱 #商业</t>
+          <t>看不起女人但是好色，不结婚但是要生娃，长得丑但是觉得自己有吸引力，自己出轨但是希望别人爱他爱到发狂… #吃瓜#女性#婚姻#管理#萧大业</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7413615387381599488</t>
+          <t>https://www.douyin.com/video/7361763241782955273</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/4207e99a09d2496c87b901e2be3f4509~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=75fORCAn%2FttSHkKd3kSrzlGhfak%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/o4Vo9mZOKi7DAeu3AAgZ4QybTbfg38QnDkCB8j~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=LvQTSu3FdXJoQX%2FiexPRTruNOv4%3D</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>354</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>不是拓客变难，而是你不懂打法#拓客 #拓客引流 #商业思维 #实体 #创业</t>
+          <t>在成都和企业家章鱼哥—线上管家婆创始人一起吃饭，听他发表学会吵架高论，对现代人的焦虑很有指导意义 #吵架#焦虑#喜怒哀乐#平凡人#萧大业</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7413299739908689186</t>
+          <t>https://www.douyin.com/video/7361386838625406234</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/2b39b3563cfc48849bf3ff9fd50e14df~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=wy7Kj3aTksKWA1nUvg55JpI04DQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o802tAzFt5MAlfe6zTW5LBCAgEboBcoIyMPHhj~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=1bKGwhMzEceOwepcYX%2BxyTaKvU4%3D</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1万</t>
+          <t>1512</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>男性消费崛起背后的逻辑</t>
+          <t>这份大纲显然是想通过具体切实而又生动活泼的教育实践，把学生真正培养成身心健全的人，对社会有用的人。制定者用心良苦，试图由此来建构教育与生活、学校与社会、 个人与世界以及人与自然等的关系。而这样的教育，比之今天有些地方倡导的“素质教育”应该更明晰、更切实…#教育#管理#素质教育#孩子#萧大业</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7413044653953436978</t>
+          <t>https://www.douyin.com/video/7360994287074528538</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/1b8fce83d8c44aabb01d31aeef98c5f8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=bQzBSQblWWQTxF9oATvEH5qhbuU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogEJCEGInZtF4BgegDbVAgBD8exTSmAA7dl9jn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=4F9JP7aSn2IJv9TOla4N4zNPEYE%3D</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>今天这个特别的日子，祝所有老师教师节快乐，我们彼此守望彼此照亮！#教师节 #张琦 #商业 #商业思维 #创业</t>
+          <t>一个人每天看书也可能会不记得什么，但在潜意识里慢慢会明白，什么是对，什么是错。#世界读书日#读书#管理 #商业 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7413000115297815835</t>
+          <t>https://www.douyin.com/video/7360617249373211955</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/f0bf74d7296d4dee85feb17d9aa78c8c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=F9QiujM%2BRQUEGDxrtcvQW15DRqk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogtm1E9MApzJSmXh0KfofELmAK3PIgBFiLBCBA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=jSrlzuvaUIXLcGuLgDglOJzxdjs%3D</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.7万</t>
+          <t>5538</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>高等教育女性反超男性，这意味着什么#婚姻 #教育 #爱情 #幸福 #认知</t>
+          <t>数据的积累、数据的挖掘，分析、归纳、整理，是一支优秀团队所必须俱备的基本素养，没有它，将军也永远是匹夫之勇#数据#故事#打仗#管理#萧大业</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7412952265499184424</t>
+          <t>https://www.douyin.com/video/7360293203788025098</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/67739561a01d490e8b6bc74af65217ab~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=VUkBlhSLb2UaPGRwLRQmUf%2BChJ0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o8Q8Cenx9AAfEQQkKKDIlMBABDpg2WKtJmbONx~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=%2BFzzrlOOAoqUqPbhQgzfuXN3SuA%3D</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>2555</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>今天是教师节，收到很多宝宝的祝福有感而发，19年专注教育，我希望能帮到更多人！#教师节 #商业思维 #张琦 #创始人 #老板</t>
+          <t>一场震惊世界的世纪大审判，一个非常值得你了解的案件，审判背后的原因更值得深思… #辛普森#公正#公平#世纪审判#萧大业</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7412661460842695971</t>
+          <t>https://www.douyin.com/video/7359548794914082058</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/1a150a56d71a4ea6b7db138f00577b01~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=WeMQD5Ar9fJsEmq9B7ideX3NaOY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oolbO7hIEAgzHSEtAXfCiAwAtq9CNAAlzBSeBH~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=rgpaKmusv53pJ4G%2F5XwnnL%2BkKFM%3D</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2.1万</t>
+          <t>6392</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>普通人要如何改变自己#改变 #认知 #环境 #个人成长 #女性成长</t>
+          <t>很扎心但很管用，说的都是被掩盖的底层逻辑和事实…#成长 #人生 #萧大业 #真相#道理</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7412568833195560243</t>
+          <t>https://www.douyin.com/video/7359156194201586970</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/94dfab325162486dbc46781300e5b1a4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=aTsLs25DY9pBGm3O%2Fhzoi8ryYWc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQelyyYmIARtAhwCDT9P598BCfBbQ9VXAn6gIn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=UtIn4Dwll8RwK0gvwO299SCwTcA%3D</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>7992</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024一定要布局老板个人IP#老板 #个人ip #商业思维 #创始人 #创业</t>
+          <t>一家之言听听也好。有不同见解欢迎发表，杜绝人身攻击。 #刘强东#京东#直播带货#电商#萧大业</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7412285719571483938</t>
+          <t>https://www.douyin.com/video/7358787475990465829</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/90c6c41079e64e9d97d0b1b55a61de4a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=yKNU75%2BBRtX5DhJIG64uIs8n6uk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0U6HEguuDpe5bJmAQIWgVQfbnAxYBACWnh9H8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=xGuGtGrFy1YGbn7ryXREqfk%2FHp0%3D</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.0万</t>
+          <t>8657</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>00后恋爱观竟然是这样的#00后 #恋爱观 #爱情 #商业 #父母</t>
+          <t>你必须非常努力，才能看起来毫不费力。强者不是没有眼泪，而是含首眼泪奔跑的人#马斯克#特斯拉#电动汽车#spaceX#萧大业</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7412243905707658505</t>
+          <t>https://www.douyin.com/video/7358056073779088649</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c4a3d19e9bf54b5b95371e022d37eebf~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=kyzKIKRdcB1bOPM2zY2LHAuAeJk%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oAxIghCBeh5EzAEtdRdDMoQwdKSzABfsC8mAij~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=wP8Fo3TrdZW5pUxrVykBpyUsEvw%3D</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>1.8万</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>提升管理能力，只需每天1小时#管理 #领导 #带团队 #能力提升 #商业思维</t>
+          <t>我们的专家院士对马斯克移民火星有着截然不同的看法，你怎么看#马斯克#特斯拉#移民火星#萧大业 #外星人</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7411929706020261146</t>
+          <t>https://www.douyin.com/video/7357706371770502450</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/e6e7f9df4315461598dd21e9c1bb4bb4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=0RnWo0wyOn7%2BNh48jYbggctX%2BTo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oEcm04l6TAUNB9mngEfgG0CzZty5WvehAABUbI~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=QMsPB6KExLAgQDmJM9CTwRD8Uvk%3D</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4910</t>
+          <t>1573</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>看不到全局，你将再错过10年#投放 #商业思维 #新媒体 #实体 #拓客引流</t>
+          <t>阿里巴巴还有救吗？我反正绝对不乐观 #蔡崇信#马云#阿里巴巴#电商#萧大业</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7411900067461860617</t>
+          <t>https://www.douyin.com/video/7357328487708904742</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/3f0bfcb85dcb45efa5d22994ae5a1d08~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=F5sYz8QoI0z9ibuvqtf27Yr6%2F14%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oos0EJgGbAI7TsIpDn9mJ0BseDACeA2wonxQGS~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=DBIo%2FzK90a4aEuKju0ImYcQMmOk%3D</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4695</t>
+          <t>1.3万</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>拿捏15后社交圈，小天才原来这么牛#小天才 #腾讯 #商业思维 #聚焦 #老板思维</t>
+          <t>范增娶了小他50岁的娇妻引发热议，你怎么看？ #范增#书画#国学#婚姻#萧大业</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7411498234981453108</t>
+          <t>https://www.douyin.com/video/7356200128975293722</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/76e60ae740074847a447e0585195b111~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=l8nryg6t7H%2FZw2RzY98rgDsJx%2BU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oE4FCIcQnmVjnBeSgDbRASBDpehgmmAAoRq95s~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Huhm%2BnyGxt3Jp7VVRkZAnfsFVP4%3D</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2281</t>
+          <t>2628</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>心太软的人，怎么做好管理？#心软 #管理 #领导 #领导力 #高管</t>
+          <t>我想从头到尾讲一下我们这位和马斯克一样为了梦想奋不顾身的同胞的故事，故事很长但真的值得听，听完像看了一部跌宕起伏的电影，里面充满了刺激和感动...#飞天汽车#小鹏汇天#赵德力 #马斯克#萧大业</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7411121429527285030</t>
+          <t>https://www.douyin.com/video/7355460960003312923</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/1a79522495ee457f99f7cfc7ccff8711~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Ddbu7vkaUjdM4d7OAvwaltSsbSg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocnEnZbgFEm9mexAVjcBAnCADEQAsIxg9CInvf~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=UwojCWf8jW7zT770y9g62CvClDI%3D</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>1.0万</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>搬运工到千亿老板，他到底经历了什么#极兔快递 #千亿 #李杰 #商业思维 #出海</t>
+          <t>在这个充满诱惑的世界里，如果一个人能让你心安 那么这个人一定比这个世界更迷人 #宫崎骏#久石让#动漫#天空之城#萧大业</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7411081173591493928</t>
+          <t>https://www.douyin.com/video/7355085270380760357</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/1fe401fdc69b4a0fbd80a594b5a18b67~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=TXgPZ08ks%2FnflUAsDOrR%2FDOdzfc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQ09EEDoQslUklCjAqKtBYgInbAe8AE9eBXmoQ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=01xrC%2FyhHQdM4%2Bs4sRVSmQXosV0%3D</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t>4974</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>中国2大商业亮点，你有抓住吗？#商业 #汽车 #品牌 #出海 #商业思维</t>
+          <t>人生无论怎么选，都会有遗憾。而真正的英雄主义，是在看清生活的真相之后，依然热爱生活。 #宫崎骏#你想活出怎样的人生#动画#动漫#萧大业</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7410765702119820595</t>
+          <t>https://www.douyin.com/video/7354739598758661414</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/1d6332b1f7f84d298e2b29b02418c216~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=7%2BlnldieTcryasTZw59McDX6IwE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owRgRaoA9IDALC2bTYEBMFnmW4feDALUBgciSE~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=55D9Q6HLqHVb%2FYGeYp680zVnXcY%3D</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>功高震主是大忌，能当上管理的人真的太厉害了！#管理 #职场 #领导力 #功高震主</t>
+          <t>老米的财长斜背着帆布袋，手提着电脑包，一个拎包的都没有来访了，平凡普通的背后却有着惊天伟业和幸福家庭，是事业家庭双丰收的典范 #耶伦#诺贝尔奖#萧大业</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7410720897893403904</t>
+          <t>https://www.douyin.com/video/7354350868428344603</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/42df15b1200646f9bbccadd85e0591de~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=4gRt3gQyW8E5ynaitk5dZzyyKWk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owADCEAIzcUMfB5XghNyA6BsEfJlHmAAlM09zP~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=yGqXB9jRlGJMQFBS1R5bEQ1iV%2Bg%3D</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>2752</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>多举措鼓励生育，背后的财富逻辑#生育 #财富思维 #商业思维 #婚姻 #结婚</t>
+          <t>我的亲身经历，刻骨铭心，视频有点长，但肯定值得你一看。 #狗狗#爱#人生 #毛孩子#萧大业</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7410672548058402086</t>
+          <t>https://www.douyin.com/video/7353575872227462427</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/94780cfa8e2c4ec49e22acafea72f84a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=dNq4%2FxWNgGNgcO6caktZYL3ILgI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oM98MAAmAD3IzDlmiSCeDYFDEBCbkMpNXgnJAe~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=7uLC0%2BtaL%2FluP0eN1XzjxWPbhe8%3D</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3898</t>
+          <t>2774</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>中国制造会造福全世界人民#中国制造 #认知 #创业 #老板思维 #财富思维</t>
+          <t>万科这个惊雷到底会不会炸？郁亮会和许家印一样吗？#万科#郁亮#房地产#萧大业</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7410362707163106570</t>
+          <t>https://www.douyin.com/video/7352466543965392179</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/02b8caa2786247deae556794ab24012a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=X0nRhkqb79KthgHoUkQneKk0lrM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oofkFSUDTyIoC8smALBQ9aB8ubYfmsACAnoBgP~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=le78AQ21kbcA5LI8jl2aMQFO%2F5M%3D</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2.0万</t>
+          <t>2.1万</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>为何00后如此真实可爱自信#自信 #00后 #强大 #认知 #品牌</t>
+          <t>不挖人人从哪里来呢？国际巨头不都是挖来挖去吗？马斯克不是三天两头去NASA挖人吗？乔布斯挖人的那个关于卖红糖水还是改变世界的故事不是源远流长吗？ #雷军#小米#su7#电动汽车#萧大业</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7410271045984242994</t>
+          <t>https://www.douyin.com/video/7352092264212008201</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/df5583f536f241c9a34874c94afc7922~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=byWj1d12bRpy6lsFlMJMDtkIIDk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQrfIEGN7nAQ4ifLQ7eBB7MCoBkAkCrDQubaHD~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=%2FP3dkuAzVOJ%2FbICYq0AgeuaCSJ8%3D</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>6806</t>
+          <t>3.1万</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>人工智能对教育不是赋能，而是颠覆#人工智能 #教育 #认知 #商业思维 #名校</t>
+          <t>因为他既取得世俗意义上的成功赚到了钱，又能够继续追逐他的梦想 #雷军#小米#su7#汽车#萧大业</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7410054802668834100</t>
+          <t>https://www.douyin.com/video/7351734789533175067</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/20a2586595ba43c3b1db984e66afcf89~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=kD6m8MudqoOWvtar%2FQISVXnjU8s%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oIBvAmaAxfAXsA0BEzhzA9tMIh0ag28UACG6ue~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=cf%2Fu26yiHsE36F5tvKMzqODm5gE%3D</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>8076</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>网红品牌都是怎么火起来的#品牌 #创始人IP #商业思维 #营销思维 #新媒体</t>
+          <t>一条视频说清楚为何雷军可以封神#雷军#小米#su7#汽车#萧大业</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7410018865536683279</t>
+          <t>https://www.douyin.com/video/7351015256342318346</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/4ca920e78fae44858b3119367711ebe6~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=rUQw6z4Gvfo8QTrg614uLYDCCVk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oogFAQESIWmAw8eGSlDrBeBA9Aunog1CnIbQib~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=0G1i8pmWz6g5RsXvrm14aDPP8Mo%3D</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2.1万</t>
+          <t>2299</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>刀郎一开口，全是我的青春#刀郎 #演唱会 #商业思维 #青春 #线上演唱会</t>
+          <t>四渡赤水是无法复制的一场战役，神奇到叹为观止，听我来解读能听明白，会更有意思 #红军#长征#四渡赤水#战争#萧大业</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7409696972640390409</t>
+          <t>https://www.douyin.com/video/7348630064323464498</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/b41d038e45da4866adbb92d466abe55a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Ji6KWoCnHA%2BH18UE%2F0B08h8%2BjuM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oM3K8zZB7Q2AFEfbWnICRxnLZ72eDBa5CAaQKe~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Y%2FJpPW2hE3jXsvY1KtrDhzAuTME%3D</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2.5万</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>实力铸就话语权，彰显中国底气 #中国科技 #商业 #话语权</t>
+          <t>家里不讲道理那应该讲什么呢 #家#讲道理#人生 #成长 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7409653532560821541</t>
+          <t>https://www.douyin.com/video/7346927834910215462</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/9a1feb558cae46139b448460e14cd205~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=%2Fa3jtR0FOpMStLaE2JQ0%2ByFb5vE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oI3bEbQdnBfL8hABXrDDwnQf6CEgXkQAno7JfA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=g%2B5JZIywMsbqETzMX%2FcC7ns7U1o%3D</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3.5万</t>
+          <t>2.1万</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>女人终其一生追求的到底是什么#女性成长 #认知 #杨天真 #叶海洋 #变强</t>
+          <t>星舰的第三次发射到底是成功了还是失败了？ #马斯克#星舰#特斯拉#space X</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7409335094130773282</t>
+          <t>https://www.douyin.com/video/7345788260037217586</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/1b873a6373834e49ad19bc20ce85af67~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=VUQEahCTeCmzc%2BF5slYj6gWwFMA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0ie0ptA9Q9A4CvbEPICxFnlYL68DA3XBgRte8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Oc9Vq0iomXBgAPs6eGOYwQJqoag%3D</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1479</t>
+          <t>6670</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>拯救实体企业，把直播间搭在门店#实体 #门店 #企业 #创业 #直播</t>
+          <t>听完十句话，你会清醒很多…@微信创作者  #成长 #人生 #规则#善良#萧大业</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7409298765842025765</t>
+          <t>https://www.douyin.com/video/7345429861734927626</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/0308be4a087a455fb55bf8d4b34ca137~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ry9XP2yOBIUFQbw18DTeQZfKl6U%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oglrIw6AAnDU0g7eiNVBbeZEVACgoQuS9D8dAC~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=G%2FAs%2FyOHZ3iaCM%2FonPJVnQWqtaw%3D</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4764</t>
+          <t>2442</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>人生就是大闹一场然后悄然离去#创业者 #躺平 #个人成长 #人生 #折腾</t>
+          <t>马斯克在社交平台上表示，xAI将于本周开源AI聊天机器人Grok。#马斯克#特斯拉#open AI#Sora#萧大业</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7408865467508591899</t>
+          <t>https://www.douyin.com/video/7345077564257373477</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/d6e88e0ab1184150a7c477024faaa964~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Ea5sL8TWO%2BRMAN08W1lP%2FWslzNw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUXemLBfEDlzhsXCe9XDunSEuIoPIQUbAAqeT2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=CcAMQjcOWJgqDTJiOTrsQsJkbyQ%3D</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>6057</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>普通人如何做一场出色的演讲#演讲 #上台发言 #提升口才 #高情商表达 #汇报</t>
+          <t>这是一个超级个体崛起的时代，一个人带动一个国家的GDP，以前闻所未闻…#霉霉#泰勒斯威夫特#演唱会#新加坡</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7408833998467747098</t>
+          <t>https://www.douyin.com/video/7344720347268255002</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/0fc4aad1c1db46519e9f49e01d235647~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=TPQ9u4T%2F%2BZd0Cv1HcZbKIr6CIPU%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oYTEEyByAgdIVre4VhQENBKAtPuz9fBgtCtspA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=kK%2BfKhyZD0DdD5GPDFoTx5innWo%3D</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5513</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>记者锐评全红婵，我真的不理解#全红婵 #情商 #实力 #认知 #奥运会</t>
+          <t>一个代表国家的运动员不可以追星国外的歌手吗？ #霉霉#泰勒斯威夫特#樊振东#萧大业 #演唱会</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7408559168338136347</t>
+          <t>https://www.douyin.com/video/7343969616525266213</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/4d1faeb6a12949f48eb95208ef9cdbc5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=wt%2BkqfFaTazvwP0ol0QccbJXMNY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oEeQXkhl6AFQA0vBDWRwn9BBClrbIU73AeKgEn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=PL73N7cyj5LNAqgTlTI%2B1v8B9%2B4%3D</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3834</t>
+          <t>7709</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>董宇辉对话李娟，谈谈我的启发#董宇辉 #李娟 #性格 #表达 #我的阿勒泰</t>
+          <t>一条视频讲清楚豪横的亚洲首富的前世今生。#亚洲首富#豪横#印度#最豪华婚礼#萧大业</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7408484207388888354</t>
+          <t>https://www.douyin.com/video/7343589485633867034</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/3feccd4844a645ad95940cfb4b5c70a6~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=CcJnNVdiSyBp6bwnUMh2vjWFO8E%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ownpQCfmQBX6HIDm7b9qA6fAztuMagQTExA18l~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ZWne5mrNqsGz1oHEVVDa8sBFHYI%3D</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5402</t>
+          <t>3251</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>做管理，千万不要和下属比能力#管理 #领导力 #带团队 #老板 #流程管理</t>
+          <t>人类从历史中学到的唯一的教训，就是没有从历史中吸取到任何教训#莫言#宗庆后#钟睒睒#贾玲#萧大业</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7408205569401605386</t>
+          <t>https://www.douyin.com/video/7343202635350134067</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/3bb1871fdeb14d59b711f9b405f7d1e4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ZhSA4Ys3Iznea%2B7zE6Y7NXvKHf4%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oIQCJeB9CnlX6OAvlgrSAUeOIbBWjtADUkQTEC~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=JUrzL40FwwnB2dhvimxkn1NHMcs%3D</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3721</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>把你的门店直接改成直播间#门店 #实体 #直播 #商业 #创业</t>
+          <t>我拒绝这一元钱的赔偿，因为我没有授权他代表我，我有权拒绝这份耻辱#莫言#余秀华#笑话#人生 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7408090674614095138</t>
+          <t>https://www.douyin.com/video/7341716114843503898</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/bf4b836d66024690b49e0dbf720c0a28~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=3AXRxRZOkGYzLIfUD%2FdiuV9rtYU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYgfaDw5lAoVBLQSAnBLniT48FOQCgb9fAzUGk~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ZvhsEbJlXdXs1wIHepg0qMmq3nY%3D</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>7.0万</t>
+          <t>2969</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>长久的婚姻是人生的合伙人#婚姻 #商业思维 #爱情 #女性成长 #人生智慧</t>
+          <t>看一个人活的是否通透就看他如何看待名利，如何看待生死，如何看待自己 #游本昌#繁花#人生 #成长 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7407822565911186698</t>
+          <t>https://www.douyin.com/video/7341570830725434674</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/ba72c2dca0e4406fafebea5c4009257c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=%2BCIQa6fbP6byzvCcMqkraotVagI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okhkBFJH7Ep2t7eYfAMPgANxhAPLAuPqfg6B4C~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=RfroSsYhQLVvjEaoagAN%2BArVKgQ%3D</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>978</t>
+          <t>3122</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>新媒体时代传统企业该怎么做？#传统企业 #实体 #门店 #渠道 #获客</t>
+          <t>一个人人自危的世界太可怕了？#董宇辉#直播带货#萧大业#键盘侠</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7407726063775730978</t>
+          <t>https://www.douyin.com/video/7340995927299198246</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/e027ab16a6db4f749a4b4b75729d5bad~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=2K8yOhFR%2F2h75MEr9GnDQgQjUbY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oktyWMePAsz8VgWhvdfpnEDOAQT8IgBKD4BCyA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=DgU%2BPfuBdjdM1nBlIgJM9aH8bEE%3D</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>9.7万</t>
+          <t>899</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>水灵灵的00后，闪亮亮的发言#潘展乐 #郑钦文 #采访 #00后 #自信</t>
+          <t>有人说大唐盛世也就是相当于现在老美在国际的地位，在我看来，大错特错 #大唐盛世#长安#唐诗#李白#萧大业</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7407654131306941705</t>
+          <t>https://www.douyin.com/video/7339907217396600073</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/71b90045b8ef40e7ac4c967b90726758~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=JlKR3Sk5XV4XbucvEwbVigll3Yo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oEeaZCCnlBlZNIr8DfNJKAIxAAocb3Agm9QsTj~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=klAo4LrxOGn%2BF%2BfUqfjglSXNVqA%3D</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>9340</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>中年人最高境界，远离破产三件套#现金流 #中年 #家庭 #婚姻 #情感共鸣</t>
+          <t>内耗的人常常胡思乱想，习惯性地对所有的事情悲观。纠结、拧巴、内心戏丰富，学习掌握这十条后可能会让你逃离内耗的泥潭 #内耗#浮躁#成长 #人生 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7407371043834252559</t>
+          <t>https://www.douyin.com/video/7339515224367615241</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/649837cb71c745df93a9f30e8583ff8d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=nu3a4ehgB3IQa2f97LGR8SvP4t8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okUl2Cn9IABDbuAzbAAgQzNe9z27AmgHHf49CZ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=LVJDe94o0tM9buoF%2FtGRK7SUa1Y%3D</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>3949</t>
+          <t>2094</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>为什么说女儿国是最难的一关#女儿国 #西游记 #人生 #认知 #思考</t>
+          <t>如果我的“天命”是抹平穷人与富人的间隙与伤痕…使年轻的创业者找到方向，看到那怕一线的亮光，我一定会觉得这是有价值的，值得我义无反顾为之付出 #宗庆后#哇哈哈#管理#企业家#萧大业</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7407302054990990642</t>
+          <t>https://www.douyin.com/video/7338748879980055834</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/f7f08604a7a542da8150adc3168f8a2e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=KvwzBdaItN0RvShAgd0EDmGa%2FCo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oEeACklQwoCnHBf8gmCnHbDB8AA9mC2T22nOmI~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=lqfTLn9ehIg0I4z6x91Ly8IMbtA%3D</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>8399</t>
+          <t>1.2万</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>长大后才明白，为何那么喜欢孙悟空#孙悟空 #西游记 #做人做事 #认知 #思考</t>
+          <t>比亚迪大降价绝不是清库存这么简单#比亚迪#新能源车#王传福#价格战#萧大业</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7407104510960733480</t>
+          <t>https://www.douyin.com/video/7338397163124231475</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/db7ee5f0eb6f4ed0a108ed73aea7dcc1~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=oBGpvkJ7ISQXaQEjLgdBLLvwubE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ooVAA16CwIAz0EBfpvOkXbBvGgDEwBnzlEo9Ze~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=NGJxu%2FGgeapgPCW4%2BDSMGCjyQIk%3D</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3.7万</t>
+          <t>1902</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>西游记的深意值得我们细品#西游记 #孙悟空 #管理 #商业思维 #团队</t>
+          <t>此刻的贵州，让我们看到的是感人的凝聚力。但贵州更需要支援，需要全国人民的支持。#萧大业#贵州山火#消防#人民子弟兵#救火</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7407078517143325979</t>
+          <t>https://www.douyin.com/video/7338003650561854757</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/09e268858cb44a4eb011063828e631f3~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=3fNtY6XKPXUVX3sTgPX1yHAthRs%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oos9D1Db6e0m9VC3AYMx00gInbAL8ACifB6ldQ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=X9d%2FdthVvw%2BNDL%2B024hA40x1VBk%3D</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>5345</t>
+          <t>758</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>为黑神话悟空点赞，让世界了解中华文化#黑神话悟空 #游戏 #商业思维 #文化自信 #认知</t>
+          <t>当每一个问题只有一个答案，答案的正确性总是可疑的。 #罗翔#第二十条#法律的悖论#批判性思维#萧大业</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7406718055918718223</t>
+          <t>https://www.douyin.com/video/7337637101594250523</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/5085f7e6800f417799f1377c7d8fac8e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=GgtAZViBtb7J5ViI3n5uhkfQVJc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o4kUnUg1bAEY0WTQCn9lYhB2hDACeAXfSIxIQF~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=C%2BxOz3wbgnro9zLEdn6re5QxKiw%3D</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>提升管理能力只需每天一小时#管理能力 #领导力 #职场 #管理 #带团队</t>
+          <t>英雄的闸北，够硬够强，那里曾经是硝烟弥漫的惨烈战场，站着很多至死不退的壮烈忠魂，住着很多坚强奋斗的平凡大众。 #大业万里走单骑#上海#闸北#繁花#静安区</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7406695629780487450</t>
+          <t>https://www.douyin.com/video/7337279763503009062</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/f7281f4c51074014b697a9fb01d5e03a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=pm5z4g6I9%2FPaF6yjhL2wf28VD9Q%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQ44Fbk5nAel8ylA8mDg0CQi0BCgL4mgtf9FDA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=zlTB5CtRLHpAy%2FoazDHrDsNrrJ8%3D</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3126</t>
+          <t>776</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>40岁少年60岁中年，银发市场有无限商机#赛道 #商机 #商业思维 #创业 #经济</t>
+          <t>我的未来只有一个选择，传承你的曼巴精神。你将永远通过我活在世界上。我的耳边还回荡着你对我的叮嘱“真正的锋芒是毫不费力的”#NBA#科比#库里#约内斯库#萧大业</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7406327198271016230</t>
+          <t>https://www.douyin.com/video/7336919913451310373</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/6841746b34b24cea905323a85802d516~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=inKmRCZuzbjCYHnZZ6A0BbfBauY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ooBKfhIAE4AeEDf82F7uFobhdlnnBCpQ0C6LPj~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=9iBlepefnKV3AzxyxOR%2BovVb0A4%3D</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>5129</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>凭什么亏钱的瑞幸，还能拿到大量融资#瑞幸 #商业思维 #创业 #老板 #融资</t>
+          <t>其实优势和劣势之间的相互转化是在不断变化的，以弱胜强的并非小概率事件，而是存在一条我们不易察觉的内在逻辑。 #游泳#董志豪#蛙泳#体育#萧大业</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7406301124086467892</t>
+          <t>https://www.douyin.com/video/7336170182454349082</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/9cc623b3a5e84d428c7a3831377a57b6~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=1vJNc2HLwczES8TIJB%2FOGm8ZVyc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUVQDBAeQEJAj7BAprBneeIp6yUynbSCEAALGP~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=zS8jW64ixNLg5jhlpN6mPRhaGTM%3D</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1407</t>
+          <t>2.0万</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>能量低的人，永远做不了老板#管理 #领导 #老板思维 #创业 #团队管理</t>
+          <t>这绝对是中国的骄傲，亚洲的荣光，温州人民的自豪#游泳#潘展乐#体育#为国争光#萧大业</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7405982571051453747</t>
+          <t>https://www.douyin.com/video/7335727791373045030</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/1b3a50d6ba534e63906422d7bafb2a93~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=QWo10Lrdig%2BaEcSN8GMO28469kM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o475zNAHAh8CIbv4UBygfBsNEHetA2ptnAGFRN~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=lv5%2BqKsuO0xx8bHV2QEZrq1TJeE%3D</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1.4万</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>中华民族强势崛起，未来一定艳阳天#商业思维 #祖国万岁 #认知 #张俊杰 #格力</t>
+          <t>法律不是冰冷的逻辑，你们办的不是案子，而是别人的人生#第二十条#张艺谋#正当防卫#司法#萧大业</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7405925175893544229</t>
+          <t>https://www.douyin.com/video/7335033063623101733</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/26bfa41e1c224037acaaacc413add6c2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=EOW6mAJqMi4t2PRy8H71vHYO63A%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oEfWICgWVnA4i7o6S0ecA9lCmAaggBAyQvbEWD~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=2Y2Myhu7PchH%2FHKTzz0FzSmMly8%3D</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2167</t>
+          <t>7451</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>银发经济有哪些创富新机遇？#银发经济 #商业思维 #创业 #业绩 #商机</t>
+          <t>遇见是因为有债要还，离开是因为还清了，前世不欠，今生不见，今生相见，定有亏欠。 #弘一法师#李叔同#萧大业#人生 #修行</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7405867233295093030</t>
+          <t>https://www.douyin.com/video/7334284343868738866</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/685e03a66bf14eb5a3d6f444a10a7e27~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ZTv2ijajw%2F2NSmZrBPqWj3nSMNA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okhtPQeAEAANNI7ICyEgnSXICBf5Cn5zEz2RdF~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=myxVx%2BbcQf4vXx8JUqDJ4hjMcwA%3D</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>希望这段话，能平复你的焦虑#焦虑 #知识 #情感共鸣 #认知 #老板</t>
+          <t>贾玲本身的故事比电影精彩很多。充满了坚持、努力、拼搏和不屈，让人感受到了什么叫做不被定义的人生。#热浪滚烫#贾玲#减肥100斤#冯巩#萧大业</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7405620566213790976</t>
+          <t>https://www.douyin.com/video/7333906631102663963</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/903105e2844148beb315a9354aeadfec~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=DVtJZ0c22kTGsu%2FcomtNnYYOLx0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/os9IghHCeKNEyARtHYs4v6VPKiszABfSC7MAGQ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=bZRgNluRwB6AU67xVbZjOBAkBGo%3D</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>1106</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>管理者必修课，隐藏的薪酬陷阱#管理 #领导力 #老板 #绩效 #提成</t>
+          <t>大年初一，给各位拜年，愿您所求皆所愿，所行皆坦途，多喜乐，长安宁，岁无忧。 #春节#大年初一#过年#拜年#萧大业</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7405590316801166619</t>
+          <t>https://www.douyin.com/video/7331712876962385162</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/i226578cba97a4f4880f704ec607c3090~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=kwwQAc1QAkwOjnXmvLtmo2DE%2BXY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAbDE9cFQlTACevB8eNnbA09oSA8FO3gnl1lgd~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=LmItjSPKM%2FYj8xFUpzhdOZ4Loms%3D</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1.1万</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>银发市场的致富商机 #银发经济 #商机 #中老年 #退休 #创业</t>
+          <t>当思想改变思想，那是哲学；当上帝改变思想，那是信仰；当事实改变思想，那是科学 #思想#物理#李.斯特林#逻辑#萧大业</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7405525279864540425</t>
+          <t>https://www.douyin.com/video/7331342582162672922</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/7d8479be78e74f419dc721e871b5b35d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Hs4XsHN2%2BNworqadKEpPtJmqspU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogQ9kClAiwBYG6senAI0CveN9cCBbgbBDKAynW~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=khlhEh6xkcrW5WtF8Qj2nRHOPe8%3D</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2.0万</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>黑神话悟空燃爆世界，铸就国产3A游戏传奇#黑神话悟空 #商业思维 #创业 #文化自信 #3A游戏</t>
+          <t>这些神回答虽然很短，但非常通透 #成长 #人生 #婚姻#幸福#萧大业</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7405437046598225167</t>
+          <t>https://www.douyin.com/video/7330879397857201446</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/373f9c5f90424a00ad06e0bc89ef8881~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=EznTzFJorc7dq17V6OXDNwjjm08%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oEMCkIuG8DyATTQhgUhABf3AeAEzJgIC3Etqsk~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=AVHrxILTB56pqyW91AaC8BbiYhs%3D</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>5023</t>
+          <t>1310</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>张琦对话顾均辉，保持清醒不要恋爱脑！#顾均辉 #张琦 #人生感悟 #思维</t>
+          <t>到底啥情况？不管啥情况我都觉得奔驰咆哮哥的行为应该谴责 #奔驰#加塞#海南#奔驰咆哮哥#萧大业</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7405204749055708431</t>
+          <t>https://www.douyin.com/video/7329858282586131721</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/i2f9138a391cb4f1e98b44b11a7534702~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=qzkuTd3aHceuOTM6bYq6TdqrmjY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ooeAGNlQx7JnzBlxgPCvObDSeAA91CubJkLy6I~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=chFF6OlbiLmpzKzfeeJJBhSiMyo%3D</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>5310</t>
+          <t>675</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>中国婚姻可能将迎来巨变 #婚姻 #结婚 #认知 #单身 #经济</t>
+          <t>真想不到，呼吁尊重孩子居然也如此不容易。 #教育#孩子#尊重#人生</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7405167673769774345</t>
+          <t>https://www.douyin.com/video/7329499514216238386</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/34a745da84734280a901ca6cc3f79933~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=6TwbIJ2TwYSsAsx6qEXFWIRNZ3s%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYU35yKahv38AfIqpBCEPgAnL7c2BSzDAISNeQ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=e1dOj4Lnjz3cDVwYRSlRTtbffPE%3D</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1.4万</t>
+          <t>1.2万</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>张琦对话顾均辉：为什么你有钱还那么拼？#顾均辉 #张琦 #认知 #人生感悟 #思维</t>
+          <t>辛纳的演讲触动了我，热爱才是孩子最强的自驱力。#澳网#辛纳#郑钦文#网球#萧大业</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7405127127294643506</t>
+          <t>https://www.douyin.com/video/7329114374273043721</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/49e8c3d2dc77485695812d3a3963aaf2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=M5EQtSYCfms2i1Pg84mV%2F8x8Q90%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oMHX4GhIEAgyp32tLPfC21minu9DjAAszBxeBF~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Wkj4rnQy0mvxdq6mJsmVO7hg8B8%3D</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>好好说话，人生真的开挂#会说话 #提升口才 #职场 #公众发言 #表达</t>
+          <t>听完这九句话，你会豁然开朗 #金句#情商#鸡汤#毛姆#萧大业</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7405124512263539968</t>
+          <t>https://www.douyin.com/video/7328614623261855013</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/238ae9978b2d4fd380d109d2abe7086d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=WFYQxXu3FgVZ49gOPVhwt9jCXL0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/osl9nDgGIAlCaGAJQBoVXCe8Zt06eAbHBrAohy~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=7%2FAETf7aVIDFxcC6yIQneb8kmeE%3D</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>4037</t>
+          <t>595</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>张琦对话顾均辉，你眼前的Ta并不完美！#认知 #思维 #人生感悟</t>
+          <t>如果思念有声音，那一定是震耳欲聋，怀念科比#科比#湖人#NBA#萧大业</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7404875167253482761</t>
+          <t>https://www.douyin.com/video/7326488284736146715</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/9c7205093c074f4f8a54dbc69d22a739~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=KZB%2FbM3hToUhooHqEqkXfn1Aw%2BU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocChy6hlEcNACy1B5sTztABeUEAfBQngLQDyIJ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=HeTcM2L1iob5xZsXw6wlTOWSkP0%3D</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>3413</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>每天睡前1小时，管理能力突飞猛进#管理 #领导 #领导力 #团队 #晋升</t>
+          <t>20万人出了295位将军的牛叉县城，估计很多人可能都不知道，甚至包括当地人。我们的历史需要传承，光荣需要延续，和我一起宣传起来吧 #湖南#醴陵#朱熹#釉下五彩#萧大业</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7404824969181416744</t>
+          <t>https://www.douyin.com/video/7326147209513225499</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/d87833279a514d5fa619370c733ae178~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=pG2pMJ6r%2FmpKB%2BSyC52uzgtZWHM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUAACBrrsZlINBdQMCz7NEeMCqt9hPfglxRA0O~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=IXgRDMR8W10wjvo0%2BGWNWBp6Rpk%3D</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>8868</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>女孩想明白这一点，少走很多弯路#情感 #爱情 #女性成长 #恋爱脑 #认知</t>
+          <t>听比说更重要，但其实很多人都不会听。#沟通#听#人生 #萧大业#表达</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7404798851468594482</t>
+          <t>https://www.douyin.com/video/7325380777741487369</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/207152dad3484e5bb1bbe41cc153e764~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Tg9pzr%2BbyNfBDX9hRsLYAv0SgeY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAUFbRrDPMIdqUwlAnEQ9eCe7b1DOsACAnuBgN~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=iIlTcI8l0Fxs2tF0uIKo70cLBLA%3D</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>866</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>新媒体时代，创始人抓紧大胆做个人ip#创始人 #个人ip #新媒体 #商业 #创业</t>
+          <t>规则在普通话里，感情在方言里。#繁花#王家卫#上海话#粤语#萧大业</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7404460974184451365</t>
+          <t>https://www.douyin.com/video/7325017542810979621</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/6681ffa672c0435695dbb2206f60a15a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=%2FxgQhHLeLhCHUHUP40BuWaMfAyI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owsz85cBHgeQAWTe2n2EgeaA7Uj6LPENBE5KCR~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=iafTJWxXcShTDC19QPGPFTIaCJs%3D</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>10.7万</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>养育孩子绝不是为了传宗接代和防老#家庭 #孩子 #养老 #认知 #传宗接代</t>
+          <t>《繁花》背后有一个超级重要的人，被大部分人遗忘了，其实她才是把小说变成剧本的灵魂人物。#繁花#王家卫#秦雯#胡歌#萧大业</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7404455281628810522</t>
+          <t>https://www.douyin.com/video/7324657231172062514</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/82057e8bfa4a4de891919714dd338dc9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=QE9xQyjgMaJ7D73AHyb%2F80X7wng%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQdzPTgZzhLlv00yAFAoIaEmtRAaCBACEzOe0f~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=BKce7lSU%2BppA9%2BnGVVLLz1KiG%2BE%3D</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>3086</t>
+          <t>1.4万</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>不会分钱的老板一定做不大#EMBA #管理 #领导力 #带团队 #老板</t>
+          <t>湖南人能文能武，不仅会读书，而且会打仗，天心阁是他们的魂…#湖南#长沙#天心区#湘军#萧大业</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7404143386069912870</t>
+          <t>https://www.douyin.com/video/7323933294486162726</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/2171eafe83d84524aeadf79de30575c3~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ZbyTp9PusPxflKYcUSm%2BOq7EjmE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQBsA1sogeKeoA9BIlDnFobQQnvOgYgdACj349~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=L8C7%2Bd54wGEXjktkfyyF8ThjAfs%3D</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>1.1万</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024新的商业风口你抓住了吗#商业思维 #风口 #新媒体 #创业 #创始人IP</t>
+          <t>游本昌经历的人世沧桑，如朵朵繁花，四散零落。却也酿成了一壶陈年老酒，千帆过尽，入喉自有从容余味，越品越令人沉醉 #繁花#游本昌#胡歌#王家卫#萧大业</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7404120803517713704</t>
+          <t>https://www.douyin.com/video/7323539000738729225</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/7bc0a68f34a7434db84060ab4b382b39~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=iB89%2BAdWHsL6oRedikjs5R27xkE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oA2evNqERCB5hrQQFgQYxPAdfK8AeL3JPB7JHK~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=qRCkTEprStTp6pkQl73rt4NXy5Y%3D</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2.7万</t>
+          <t>1097</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>怎么看结婚登记拟不再需要户口簿#结婚 #单身 #结婚率 #户口簿 #经济</t>
+          <t>看了视频你就知道什么是用心的服务了。真正用心的服务才是高级的服务。#萧大业#商业#管理#服务#迪斯尼</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7403702137617780018</t>
+          <t>https://www.douyin.com/video/7322868196044721459</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/d218502a8f1844cdb065208ee72507d7~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=EomfuqEoK2IDY3xNIbnasgkd%2Ffw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oolrQEHPfp2BfjjEGLBABNUget5Fq7AQQoCrYA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Qsk%2FwKH24qZKIYb3zL96OEQWkco%3D</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1054</t>
+          <t>692</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>不善言辞的你，如何完美蜕变#不善言辞 #表达 #提升口才 #改变 #侃侃而谈</t>
+          <t>人一旦暴富，就再也回不去了。繁花那个年代上海滩的惊天故事。 #繁花#王家卫#萧大业#电影#上海</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7403655335874940197</t>
+          <t>https://www.douyin.com/video/7322464518720736563</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/ba4d0602fc444acd887058e2558fdaeb~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=W2wF18fI2mjGadpPC1DWTDcztUQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oI0CZAbD7gnrlZgC9QB59JAggpIZeiArnG0pne~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=nu3PP%2FkL3j16oIYNXGC3%2Fzc%2BSes%3D</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>4113</t>
+          <t>2634</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>中国科技助力巴黎奥运，祖国日益强大，心中无比自豪#中国科技 #巴黎奥运会 #自豪 #云转播 #阿里云</t>
+          <t>人一旦暴富，就再也回不去了。繁花那个年代上海滩的惊天故事。 #繁花#王家卫#萧大业#电影#上海</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7403401987489844514</t>
+          <t>https://www.douyin.com/video/7322383659124739379</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/f8315b6304244cd3becf02a77c7aee46~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=30G982ajbIVCa%2FXHJ%2FqUayGyKmY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0UTICDnCjbAPriDVlleAeAQTy8Cw9AnJYBtKg~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=emSEAgA%2B82i2YobsXhD31ZK01Eg%3D</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3809</t>
+          <t>1567</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>抓到流量的洼地，才能换道超车#商业思维 #创业 #赛道 #新媒体 #生意</t>
+          <t>一个时代过去了，我很怀念它，不是它有多好，只是怀念我曾经历过#繁花#王家卫#上海#胡歌#萧大业</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7403288469046431011</t>
+          <t>https://www.douyin.com/video/7321321371106168102</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/3404747dbf67463a90ac3546a7af6634~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=brPoh7i%2Fu%2FuN9E10GAa1n6%2BCzOk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogI73ELARN7t3KfaPBEuON4WwaBCcA2eHjBBew~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=gmnz64fkRLP74K3nnNdSidMcRKc%3D</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>7328</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>不买房子买黄金，现在的人真聪明#认知 #思维 #黄金 #资产 #经济</t>
+          <t>从内心接受自己才会拥有自由#女明星#咏梅#电影#成长 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7403212567503572264</t>
+          <t>https://www.douyin.com/video/7320588138873720074</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/3c9b082b79b44fbcb4a1d43ef8dd5088~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ZgUS5FlERcYSmnfjUF5WZivTFBA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o8GECI9VgAn4A1Fm9fNFflzBlvluShAlC5L6BX~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ZhF64pbCNKXOXHUyu%2FDAmRKBR8w%3D</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>7.1万</t>
+          <t>1229</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>这一点没看明白，那你真的白活了#价值 #婚姻 #为人处世 #人生 #认知</t>
+          <t>哈尔滨爆火，不仅是给旅游业烧了一把火，更是给低迷的经济注入了一阵强心剂，最重要的是在人们心中种下了希望，愿尔滨一路红火！#哈尔滨#南方小土豆#东北#旅游#萧大业</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7403009910159559971</t>
+          <t>https://www.douyin.com/video/7319797801863417114</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/a3a1a48e0d8a47fdbf992a06217c1ad3~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=vMxX0A6p5DCHuni%2Bj1qsM4IkpH4%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYCneRNYD0fCQq8gl7NATSSbXTP9ByAlqIAAU6~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=0g6IdfuBgiQvJ2j4pAhl9a1qKmc%3D</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>8449</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>创业绝非闹着玩，坚持学习不能断#创业 #学习 #商业思维 #短视频 #创始人ip</t>
+          <t>2024投资谨慎，争取活下去…#2024#趋势#萧大业#预测#经济</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7402992720387558706</t>
+          <t>https://www.douyin.com/video/7318720370545134858</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/cdbd90ba6b644fc5b63462fdf5043f14~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ElhbEghUfBfMYOfK5Myx958URgs%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oEQRMBgIh0zAyC6fKFBGuyUiPqVAeABNEgYgta~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=WXvJb0MPppXioS8WoUbTtHv%2B4Ws%3D</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>1326</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>美好的生日在直播间度过，很幸运有你们的陪伴，爱你们#生日 #张琦 #直播 #幸运 #陪伴</t>
+          <t>辞旧迎新，高歌一曲祝各位新年愉快，万事如意，别忘了来许一个心愿[呲牙] #新年快乐#跨年#元旦#萧大业</t>
         </is>
       </c>
     </row>
